--- a/Data/EC/NIT-9000680244.xlsx
+++ b/Data/EC/NIT-9000680244.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E2BCE1-1D2F-472D-9634-F54936E6600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6295B0B1-757A-48C8-B515-5222098D931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39D9DFC6-84C2-42C1-AA58-D4E5875F4335}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C53D86B-EE60-4A21-8CCC-241E9626AA97}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="142">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,367 +71,364 @@
     <t>JORGE ELEAZAR FANDIÑO RODRIGUEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>42365538</t>
+  </si>
+  <si>
+    <t>ARACELY ROCIO PONCE VANEGAS</t>
+  </si>
+  <si>
+    <t>34976838</t>
+  </si>
+  <si>
+    <t>JOSEFA MARIA RAMOS DORIA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>26000423</t>
+  </si>
+  <si>
+    <t>ELIZABETH GIRALDO SANCHEZ</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>22810932</t>
+  </si>
+  <si>
+    <t>SANDY PATRICIA CADENA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1047438212</t>
+  </si>
+  <si>
+    <t>JAIRO JOSE SOTO ALVAREZ</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047438212</t>
-  </si>
-  <si>
-    <t>JAIRO JOSE SOTO ALVAREZ</t>
-  </si>
-  <si>
-    <t>42365538</t>
-  </si>
-  <si>
-    <t>ARACELY ROCIO PONCE VANEGAS</t>
-  </si>
-  <si>
-    <t>34976838</t>
-  </si>
-  <si>
-    <t>JOSEFA MARIA RAMOS DORIA</t>
-  </si>
-  <si>
-    <t>26000423</t>
-  </si>
-  <si>
-    <t>ELIZABETH GIRALDO SANCHEZ</t>
-  </si>
-  <si>
-    <t>22810932</t>
-  </si>
-  <si>
-    <t>SANDY PATRICIA CADENA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1036661759</t>
-  </si>
-  <si>
-    <t>SIGILFREDO CABALLERO VIDAL</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -530,7 +527,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -543,9 +542,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -745,23 +742,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,10 +786,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +842,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49D9E63-13D4-DF9C-D81A-FEA4DF8558A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5015E97-642E-3178-18E3-CB412F1D1E43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,8 +1193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4C400-47E4-4C6B-9EE2-43C1FD64F505}">
-  <dimension ref="B2:J404"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD974FFE-0A92-45B1-8518-F14F3C25EB4F}">
+  <dimension ref="B2:J401"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1221,7 +1218,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1266,7 +1263,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1298,12 +1295,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>14053189</v>
+        <v>13925562</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1314,17 +1311,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1351,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1388,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G17" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1411,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G18" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1440,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>24000</v>
@@ -1457,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G20" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1480,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G21" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1526,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G23" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1549,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G24" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1578,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>24000</v>
@@ -1595,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G26" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1618,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G27" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1647,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>24000</v>
@@ -1664,19 +1661,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G29" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1687,19 +1684,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G30" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1716,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>24000</v>
@@ -1733,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G32" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1756,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G33" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1785,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>24000</v>
@@ -1802,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G35" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1825,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G36" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1854,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>24000</v>
@@ -1871,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G38" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1894,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G39" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1923,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>24000</v>
@@ -1940,19 +1937,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G41" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1963,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G42" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1992,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>24000</v>
@@ -2009,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G44" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2032,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G45" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2061,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>24000</v>
@@ -2078,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G47" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2101,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G48" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2130,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>24000</v>
@@ -2147,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G50" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2170,19 +2167,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G51" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2199,7 +2196,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
         <v>24000</v>
@@ -2216,19 +2213,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G53" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2239,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G54" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2268,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>24000</v>
@@ -2285,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G56" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2308,19 +2305,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G57" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2337,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
         <v>24000</v>
@@ -2354,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G59" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2377,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G60" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2406,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
         <v>24000</v>
@@ -2423,19 +2420,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G62" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2446,19 +2443,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G63" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2475,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
         <v>24000</v>
@@ -2492,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G65" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2515,19 +2512,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G66" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2544,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
         <v>24000</v>
@@ -2561,19 +2558,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G68" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2584,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G69" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2613,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
         <v>24000</v>
@@ -2630,19 +2627,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G71" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2653,19 +2650,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G72" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2682,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
         <v>24000</v>
@@ -2699,19 +2696,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G74" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2722,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G75" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2751,7 +2748,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
         <v>24000</v>
@@ -2768,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G77" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2791,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G78" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2820,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
         <v>24000</v>
@@ -2837,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G80" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2860,19 +2857,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G81" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2889,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
         <v>24000</v>
@@ -2906,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G83" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2929,19 +2926,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G84" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2958,7 +2955,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
         <v>24000</v>
@@ -2975,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G86" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2998,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G87" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3027,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
         <v>24000</v>
@@ -3044,19 +3041,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F89" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G89" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3067,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G90" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3096,7 +3093,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
         <v>24000</v>
@@ -3113,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F92" s="18">
-        <v>24000</v>
+        <v>24392</v>
       </c>
       <c r="G92" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3136,19 +3133,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F93" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G93" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3165,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F94" s="18">
         <v>24000</v>
@@ -3182,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3205,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F96" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G96" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3234,7 +3231,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F97" s="18">
         <v>24000</v>
@@ -3251,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="F98" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3274,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F99" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G99" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3297,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F100" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>600000</v>
+        <v>828116</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3326,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
         <v>24000</v>
@@ -3343,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="F102" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3366,19 +3363,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G103" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3389,19 +3386,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>600000</v>
+        <v>828116</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3418,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F105" s="18">
         <v>24000</v>
@@ -3435,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3458,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G107" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3481,19 +3478,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F108" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>600000</v>
+        <v>828116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3510,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
         <v>24000</v>
@@ -3527,19 +3524,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3550,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G111" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3573,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F112" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>600000</v>
+        <v>828116</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3602,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
         <v>24000</v>
@@ -3619,19 +3616,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3642,19 +3639,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G115" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3665,19 +3662,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>600000</v>
+        <v>828116</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3688,19 +3685,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F117" s="18">
-        <v>24000</v>
+        <v>33125</v>
       </c>
       <c r="G117" s="18">
-        <v>600000</v>
+        <v>1423500</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3717,7 +3714,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F118" s="18">
         <v>24000</v>
@@ -3734,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F119" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3757,19 +3754,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="F120" s="18">
-        <v>24000</v>
+        <v>57124</v>
       </c>
       <c r="G120" s="18">
-        <v>600000</v>
+        <v>1428096</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3780,19 +3777,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F121" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>600000</v>
+        <v>828116</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3803,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F122" s="18">
-        <v>24000</v>
+        <v>33125</v>
       </c>
       <c r="G122" s="18">
-        <v>600000</v>
+        <v>1423500</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3832,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F123" s="18">
         <v>24000</v>
@@ -3849,19 +3846,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="F124" s="18">
-        <v>24000</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>600000</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3872,19 +3869,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F125" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G125" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3895,19 +3892,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F126" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>2386550</v>
+        <v>828116</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3918,19 +3915,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F127" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G127" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3941,19 +3938,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F128" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G128" s="18">
-        <v>2386550</v>
+        <v>600000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3964,19 +3961,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F129" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>2386550</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3987,19 +3984,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F130" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G130" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4010,19 +4007,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F131" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G131" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4033,19 +4030,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F132" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G132" s="18">
-        <v>2386550</v>
+        <v>600000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4056,19 +4053,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F133" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>2386550</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4079,19 +4076,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F134" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G134" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4102,19 +4099,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F135" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G135" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4125,19 +4122,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F136" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G136" s="18">
-        <v>2386550</v>
+        <v>600000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4148,19 +4145,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F137" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>2386550</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4171,19 +4168,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F138" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G138" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4194,19 +4191,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F139" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G139" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4217,19 +4214,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F140" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G140" s="18">
-        <v>2386550</v>
+        <v>600000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4240,19 +4237,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F141" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>2386550</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4263,19 +4260,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F142" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G142" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4286,19 +4283,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F143" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G143" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4309,19 +4306,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F144" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G144" s="18">
-        <v>2386550</v>
+        <v>600000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4332,19 +4329,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F145" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>2386550</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4355,19 +4352,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F146" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G146" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4378,19 +4375,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F147" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G147" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4401,19 +4398,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F148" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G148" s="18">
-        <v>2386550</v>
+        <v>600000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4424,19 +4421,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F149" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>2386550</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4447,19 +4444,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F150" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G150" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4470,19 +4467,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F151" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G151" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4493,19 +4490,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F152" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G152" s="18">
-        <v>2386550</v>
+        <v>600000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4516,19 +4513,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F153" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>2386550</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4539,19 +4536,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F154" s="18">
-        <v>36341</v>
+        <v>57124</v>
       </c>
       <c r="G154" s="18">
-        <v>2386550</v>
+        <v>1428096</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4562,19 +4559,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E155" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F155" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G155" s="18">
-        <v>2386550</v>
+        <v>1423500</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4585,19 +4582,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4608,13 +4605,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4631,19 +4628,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4654,19 +4651,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4677,19 +4674,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4700,13 +4697,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4723,19 +4720,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4746,19 +4743,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4769,19 +4766,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G164" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4792,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4815,19 +4812,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4838,19 +4835,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F167" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G167" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4861,13 +4858,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4884,19 +4881,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4907,19 +4904,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F170" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G170" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4930,13 +4927,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
@@ -4953,19 +4950,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F172" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G172" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4976,19 +4973,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F173" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G173" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4999,13 +4996,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
@@ -5022,19 +5019,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F175" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5045,19 +5042,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F176" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G176" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5068,13 +5065,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
@@ -5091,19 +5088,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G178" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5114,19 +5111,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F179" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G179" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5137,13 +5134,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
@@ -5160,19 +5157,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F181" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G181" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5183,19 +5180,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F182" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G182" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5206,13 +5203,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
@@ -5229,19 +5226,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F184" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G184" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5252,19 +5249,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F185" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G185" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5275,13 +5272,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5298,19 +5295,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F187" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G187" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5321,19 +5318,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F188" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G188" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5344,13 +5341,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5367,19 +5364,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F190" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G190" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5390,19 +5387,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F191" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G191" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5413,13 +5410,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5436,19 +5433,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F193" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G193" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5459,19 +5456,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F194" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G194" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5482,13 +5479,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5505,19 +5502,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F196" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G196" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5528,19 +5525,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F197" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G197" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5551,13 +5548,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5574,19 +5571,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F199" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G199" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5597,19 +5594,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F200" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G200" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5620,13 +5617,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5643,19 +5640,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F202" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G202" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5666,19 +5663,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F203" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G203" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5689,13 +5686,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5712,19 +5709,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G205" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5735,19 +5732,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G206" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5758,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5781,19 +5778,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F208" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G208" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5804,19 +5801,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F209" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G209" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5827,13 +5824,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F210" s="18">
         <v>31249</v>
@@ -5850,19 +5847,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F211" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G211" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5873,19 +5870,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F212" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G212" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5896,13 +5893,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F213" s="18">
         <v>31249</v>
@@ -5919,19 +5916,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F214" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G214" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5942,19 +5939,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G215" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5965,19 +5962,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F216" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G216" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5988,13 +5985,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F217" s="18">
         <v>31249</v>
@@ -6011,19 +6008,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F218" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G218" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6034,19 +6031,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F219" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G219" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6057,19 +6054,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F220" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G220" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6080,13 +6077,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F221" s="18">
         <v>31249</v>
@@ -6103,19 +6100,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F222" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G222" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6126,19 +6123,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F223" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G223" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6149,19 +6146,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F224" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G224" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6172,13 +6169,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F225" s="18">
         <v>31249</v>
@@ -6195,19 +6192,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F226" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G226" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6218,19 +6215,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F227" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G227" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6241,19 +6238,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F228" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G228" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6264,10 +6261,10 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E229" s="16" t="s">
         <v>84</v>
@@ -6287,19 +6284,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6310,19 +6307,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F231" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G231" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6333,19 +6330,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F232" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G232" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6356,13 +6353,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
@@ -6379,19 +6376,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F234" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G234" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6402,19 +6399,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F235" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G235" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6425,19 +6422,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F236" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G236" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6448,13 +6445,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
@@ -6471,19 +6468,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F238" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G238" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6494,19 +6491,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F239" s="18">
-        <v>24392</v>
+        <v>24000</v>
       </c>
       <c r="G239" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6517,19 +6514,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F240" s="18">
-        <v>24392</v>
+        <v>36341</v>
       </c>
       <c r="G240" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6540,16 +6537,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F241" s="18">
-        <v>24392</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
         <v>781242</v>
@@ -6563,19 +6560,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F242" s="18">
-        <v>24392</v>
+        <v>57124</v>
       </c>
       <c r="G242" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6586,19 +6583,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F243" s="18">
-        <v>24392</v>
+        <v>24000</v>
       </c>
       <c r="G243" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6609,19 +6606,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F244" s="18">
-        <v>24392</v>
+        <v>36341</v>
       </c>
       <c r="G244" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6632,16 +6629,16 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F245" s="18">
-        <v>24392</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
         <v>781242</v>
@@ -6655,19 +6652,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F246" s="18">
-        <v>24392</v>
+        <v>57124</v>
       </c>
       <c r="G246" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6678,19 +6675,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F247" s="18">
-        <v>24392</v>
+        <v>24000</v>
       </c>
       <c r="G247" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6701,19 +6698,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F248" s="18">
-        <v>24392</v>
+        <v>36341</v>
       </c>
       <c r="G248" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6724,16 +6721,16 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F249" s="18">
-        <v>24392</v>
+        <v>31249</v>
       </c>
       <c r="G249" s="18">
         <v>781242</v>
@@ -6747,19 +6744,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F250" s="18">
-        <v>24392</v>
+        <v>57124</v>
       </c>
       <c r="G250" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6770,19 +6767,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F251" s="18">
-        <v>24392</v>
+        <v>24000</v>
       </c>
       <c r="G251" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6793,19 +6790,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F252" s="18">
-        <v>24392</v>
+        <v>36341</v>
       </c>
       <c r="G252" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6816,16 +6813,16 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F253" s="18">
-        <v>24392</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
         <v>781242</v>
@@ -6839,19 +6836,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F254" s="18">
-        <v>24392</v>
+        <v>57124</v>
       </c>
       <c r="G254" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6862,19 +6859,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F255" s="18">
-        <v>24392</v>
+        <v>24000</v>
       </c>
       <c r="G255" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6885,19 +6882,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F256" s="18">
-        <v>24392</v>
+        <v>36341</v>
       </c>
       <c r="G256" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6908,16 +6905,16 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F257" s="18">
-        <v>24392</v>
+        <v>31249</v>
       </c>
       <c r="G257" s="18">
         <v>781242</v>
@@ -6931,19 +6928,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F258" s="18">
-        <v>24392</v>
+        <v>57124</v>
       </c>
       <c r="G258" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6954,19 +6951,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F259" s="18">
-        <v>24392</v>
+        <v>24000</v>
       </c>
       <c r="G259" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6977,19 +6974,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F260" s="18">
-        <v>24392</v>
+        <v>36341</v>
       </c>
       <c r="G260" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7000,16 +6997,16 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F261" s="18">
-        <v>24392</v>
+        <v>31249</v>
       </c>
       <c r="G261" s="18">
         <v>781242</v>
@@ -7023,19 +7020,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F262" s="18">
-        <v>24392</v>
+        <v>57124</v>
       </c>
       <c r="G262" s="18">
-        <v>781242</v>
+        <v>1428096</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7046,19 +7043,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F263" s="18">
-        <v>24392</v>
+        <v>24000</v>
       </c>
       <c r="G263" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7069,19 +7066,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F264" s="18">
-        <v>24392</v>
+        <v>36341</v>
       </c>
       <c r="G264" s="18">
-        <v>781242</v>
+        <v>2835223</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7092,19 +7089,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F265" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G265" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7115,13 +7112,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F266" s="18">
         <v>57124</v>
@@ -7138,19 +7135,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F267" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G267" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7161,19 +7158,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F268" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G268" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7184,19 +7181,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="F269" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G269" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7207,13 +7204,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F270" s="18">
         <v>57124</v>
@@ -7230,19 +7227,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F271" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G271" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7253,19 +7250,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F272" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G272" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7276,19 +7273,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="F273" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G273" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7299,13 +7296,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F274" s="18">
         <v>57124</v>
@@ -7322,19 +7319,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="F275" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G275" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7345,19 +7342,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F276" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G276" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7368,19 +7365,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F277" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G277" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7391,13 +7388,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F278" s="18">
         <v>57124</v>
@@ -7414,19 +7411,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F279" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G279" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7437,19 +7434,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F280" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G280" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7460,19 +7457,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="F281" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7483,13 +7480,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="F282" s="18">
         <v>57124</v>
@@ -7506,19 +7503,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F283" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G283" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7529,19 +7526,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F284" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G284" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7552,19 +7549,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F285" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G285" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7575,13 +7572,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F286" s="18">
         <v>57124</v>
@@ -7598,19 +7595,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F287" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G287" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7621,19 +7618,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F288" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G288" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7644,19 +7641,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F289" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7667,13 +7664,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F290" s="18">
         <v>57124</v>
@@ -7690,19 +7687,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="F291" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G291" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7713,19 +7710,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F292" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G292" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7736,19 +7733,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F293" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G293" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7759,13 +7756,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F294" s="18">
         <v>57124</v>
@@ -7782,19 +7779,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F295" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G295" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7805,19 +7802,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F296" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G296" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7828,19 +7825,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F297" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G297" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7851,13 +7848,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F298" s="18">
         <v>57124</v>
@@ -7874,19 +7871,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F299" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G299" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7897,19 +7894,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F300" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G300" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7920,19 +7917,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F301" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G301" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7943,13 +7940,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F302" s="18">
         <v>57124</v>
@@ -7966,19 +7963,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F303" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G303" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7989,19 +7986,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F304" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G304" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8012,19 +8009,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F305" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G305" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8035,13 +8032,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F306" s="18">
         <v>57124</v>
@@ -8058,19 +8055,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F307" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G307" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8081,19 +8078,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F308" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G308" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8104,19 +8101,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F309" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G309" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8127,13 +8124,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F310" s="18">
         <v>57124</v>
@@ -8150,19 +8147,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F311" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G311" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8173,19 +8170,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F312" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G312" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8196,19 +8193,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F313" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G313" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8219,13 +8216,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F314" s="18">
         <v>57124</v>
@@ -8242,19 +8239,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F315" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G315" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8265,19 +8262,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F316" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G316" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8288,19 +8285,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F317" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G317" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8311,13 +8308,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F318" s="18">
         <v>57124</v>
@@ -8334,19 +8331,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="F319" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G319" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8357,19 +8354,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F320" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G320" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8380,19 +8377,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F321" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G321" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8403,13 +8400,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F322" s="18">
         <v>57124</v>
@@ -8426,19 +8423,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F323" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G323" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8449,19 +8446,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F324" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G324" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8472,19 +8469,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F325" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G325" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8495,13 +8492,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F326" s="18">
         <v>57124</v>
@@ -8518,19 +8515,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F327" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G327" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8541,19 +8538,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="F328" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G328" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8564,19 +8561,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F329" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G329" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8587,13 +8584,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="F330" s="18">
         <v>57124</v>
@@ -8610,19 +8607,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F331" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G331" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8633,19 +8630,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F332" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G332" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8656,19 +8653,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F333" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G333" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8679,13 +8676,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F334" s="18">
         <v>57124</v>
@@ -8702,19 +8699,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F335" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G335" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8725,19 +8722,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F336" s="18">
-        <v>57124</v>
+        <v>36341</v>
       </c>
       <c r="G336" s="18">
-        <v>1428096</v>
+        <v>2835223</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8748,19 +8745,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F337" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G337" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8771,13 +8768,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F338" s="18">
         <v>57124</v>
@@ -8794,19 +8791,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="F339" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G339" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8817,19 +8814,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F340" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G340" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8840,13 +8837,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F341" s="18">
         <v>57124</v>
@@ -8863,19 +8860,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F342" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G342" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8886,19 +8883,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F343" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G343" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8909,13 +8906,13 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F344" s="18">
         <v>57124</v>
@@ -8932,19 +8929,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F345" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G345" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8955,19 +8952,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F346" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G346" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8978,13 +8975,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F347" s="18">
         <v>57124</v>
@@ -9001,19 +8998,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F348" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G348" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -9024,19 +9021,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F349" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G349" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9047,13 +9044,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F350" s="18">
         <v>57124</v>
@@ -9070,19 +9067,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F351" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G351" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -9093,19 +9090,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F352" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G352" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -9116,13 +9113,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F353" s="18">
         <v>57124</v>
@@ -9139,19 +9136,19 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F354" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G354" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H354" s="19"/>
       <c r="I354" s="19"/>
@@ -9162,19 +9159,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F355" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G355" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9185,13 +9182,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F356" s="18">
         <v>57124</v>
@@ -9208,19 +9205,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F357" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G357" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9231,19 +9228,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F358" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G358" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9254,13 +9251,13 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F359" s="18">
         <v>57124</v>
@@ -9277,19 +9274,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F360" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G360" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9300,19 +9297,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F361" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G361" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9323,13 +9320,13 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F362" s="18">
         <v>57124</v>
@@ -9346,19 +9343,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F363" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G363" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9369,19 +9366,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F364" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G364" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9392,13 +9389,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F365" s="18">
         <v>57124</v>
@@ -9415,19 +9412,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F366" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G366" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9438,19 +9435,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F367" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G367" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9461,13 +9458,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F368" s="18">
         <v>57124</v>
@@ -9484,19 +9481,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F369" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G369" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9507,19 +9504,19 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F370" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G370" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H370" s="19"/>
       <c r="I370" s="19"/>
@@ -9530,13 +9527,13 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F371" s="18">
         <v>57124</v>
@@ -9553,19 +9550,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F372" s="18">
-        <v>57124</v>
+        <v>24000</v>
       </c>
       <c r="G372" s="18">
-        <v>1428096</v>
+        <v>600000</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9576,19 +9573,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F373" s="18">
-        <v>57124</v>
+        <v>31249</v>
       </c>
       <c r="G373" s="18">
-        <v>1428096</v>
+        <v>781242</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9599,19 +9596,19 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F374" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G374" s="18">
-        <v>828116</v>
+        <v>1428096</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
@@ -9622,19 +9619,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F375" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G375" s="18">
-        <v>828116</v>
+        <v>600000</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9645,19 +9642,19 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F376" s="18">
         <v>31249</v>
       </c>
       <c r="G376" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H376" s="19"/>
       <c r="I376" s="19"/>
@@ -9668,19 +9665,19 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F377" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G377" s="18">
-        <v>828116</v>
+        <v>1428096</v>
       </c>
       <c r="H377" s="19"/>
       <c r="I377" s="19"/>
@@ -9691,19 +9688,19 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F378" s="18">
-        <v>31249</v>
+        <v>24000</v>
       </c>
       <c r="G378" s="18">
-        <v>828116</v>
+        <v>600000</v>
       </c>
       <c r="H378" s="19"/>
       <c r="I378" s="19"/>
@@ -9714,19 +9711,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F379" s="18">
         <v>31249</v>
       </c>
       <c r="G379" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9737,19 +9734,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F380" s="18">
-        <v>31249</v>
+        <v>57124</v>
       </c>
       <c r="G380" s="18">
-        <v>828116</v>
+        <v>1428096</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9760,19 +9757,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F381" s="18">
-        <v>33125</v>
+        <v>24000</v>
       </c>
       <c r="G381" s="18">
-        <v>1300000</v>
+        <v>600000</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9783,19 +9780,19 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F382" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G382" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H382" s="19"/>
       <c r="I382" s="19"/>
@@ -9806,19 +9803,19 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E383" s="16" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F383" s="18">
-        <v>33125</v>
+        <v>57124</v>
       </c>
       <c r="G383" s="18">
-        <v>1300000</v>
+        <v>1428096</v>
       </c>
       <c r="H383" s="19"/>
       <c r="I383" s="19"/>
@@ -9829,19 +9826,19 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F384" s="18">
-        <v>33125</v>
+        <v>24000</v>
       </c>
       <c r="G384" s="18">
-        <v>1300000</v>
+        <v>600000</v>
       </c>
       <c r="H384" s="19"/>
       <c r="I384" s="19"/>
@@ -9852,19 +9849,19 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="F385" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G385" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H385" s="19"/>
       <c r="I385" s="19"/>
@@ -9875,19 +9872,19 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="F386" s="18">
-        <v>33125</v>
+        <v>57124</v>
       </c>
       <c r="G386" s="18">
-        <v>1300000</v>
+        <v>1428096</v>
       </c>
       <c r="H386" s="19"/>
       <c r="I386" s="19"/>
@@ -9898,19 +9895,19 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E387" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D387" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E387" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="F387" s="18">
-        <v>33125</v>
+        <v>24000</v>
       </c>
       <c r="G387" s="18">
-        <v>1300000</v>
+        <v>600000</v>
       </c>
       <c r="H387" s="19"/>
       <c r="I387" s="19"/>
@@ -9921,19 +9918,19 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D388" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E388" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="F388" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G388" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H388" s="19"/>
       <c r="I388" s="19"/>
@@ -9944,19 +9941,19 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D389" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E389" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D389" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E389" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="F389" s="18">
-        <v>33125</v>
+        <v>57124</v>
       </c>
       <c r="G389" s="18">
-        <v>1300000</v>
+        <v>1428096</v>
       </c>
       <c r="H389" s="19"/>
       <c r="I389" s="19"/>
@@ -9967,19 +9964,19 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D390" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E390" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E390" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="F390" s="18">
-        <v>33125</v>
+        <v>24000</v>
       </c>
       <c r="G390" s="18">
-        <v>1300000</v>
+        <v>600000</v>
       </c>
       <c r="H390" s="19"/>
       <c r="I390" s="19"/>
@@ -9990,19 +9987,19 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D391" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E391" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E391" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="F391" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G391" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H391" s="19"/>
       <c r="I391" s="19"/>
@@ -10013,19 +10010,19 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D392" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E392" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E392" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="F392" s="18">
-        <v>33125</v>
+        <v>57124</v>
       </c>
       <c r="G392" s="18">
-        <v>1300000</v>
+        <v>1428096</v>
       </c>
       <c r="H392" s="19"/>
       <c r="I392" s="19"/>
@@ -10036,19 +10033,19 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D393" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E393" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D393" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E393" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F393" s="18">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="G393" s="18">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H393" s="19"/>
       <c r="I393" s="19"/>
@@ -10059,144 +10056,75 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D394" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E394" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D394" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E394" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F394" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G394" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H394" s="19"/>
       <c r="I394" s="19"/>
       <c r="J394" s="20"/>
     </row>
     <row r="395" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B395" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C395" s="16" t="s">
+      <c r="B395" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D395" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E395" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F395" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G395" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H395" s="19"/>
-      <c r="I395" s="19"/>
-      <c r="J395" s="20"/>
-    </row>
-    <row r="396" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B396" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C396" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D396" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E396" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F396" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G396" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H396" s="19"/>
-      <c r="I396" s="19"/>
-      <c r="J396" s="20"/>
-    </row>
-    <row r="397" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B397" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C397" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D397" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E397" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F397" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G397" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H397" s="19"/>
-      <c r="I397" s="19"/>
-      <c r="J397" s="20"/>
-    </row>
-    <row r="398" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B398" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C398" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D398" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E398" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F398" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G398" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H398" s="25"/>
-      <c r="I398" s="25"/>
-      <c r="J398" s="26"/>
-    </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B403" s="32" t="s">
+      <c r="F395" s="24">
+        <v>57124</v>
+      </c>
+      <c r="G395" s="24">
+        <v>1428096</v>
+      </c>
+      <c r="H395" s="25"/>
+      <c r="I395" s="25"/>
+      <c r="J395" s="26"/>
+    </row>
+    <row r="400" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B400" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C400" s="32"/>
+      <c r="H400" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B401" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C401" s="32"/>
+      <c r="H401" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C403" s="32"/>
-      <c r="H403" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-    </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B404" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C404" s="32"/>
-      <c r="H404" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B404:C404"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="H404:J404"/>
-    <mergeCell ref="H403:J403"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="B400:C400"/>
+    <mergeCell ref="H401:J401"/>
+    <mergeCell ref="H400:J400"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
